--- a/npf.xlsx
+++ b/npf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,6211 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>eb8517eae9b200d6693dde261c2ece49</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>91a352dcae4ebd5942dee51545bd618f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>b6bb6c8a77b6f0a6dbb576f316f6e29b</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8316bdbd6a79763d56d09c720448876e</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1ecc6421bb503fe492bd1f1bcd300cca</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8f2d6c9464d17fa2b5556f86e3d347c3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5f7a8b57fb9a9f3c1e4257c3100e3bb5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Faruk &amp; Portilla-Villota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7ac5fccc4d7906930e9c8f619d3bd4b5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9691a8283c14e5b389d0fe869d1c39cf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>230d60962b2fc5090cecb534c54b8739</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>761f488b89003d9150903c033395eb59</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>b03324497c651255d4e65bac4ba1fd54</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>028f8eea4ce1d9816cb54aaa86336ff9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>b058e45fb8aa2ec323e746f68305559a</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6cde12d1afdb80893eade3c2b2a468b1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>85230908a5092fa5d4bf8d0899c6e9b0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6fc4975d2cf40e16353a1ba3c7bf0885</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Suda &amp; Taylor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Faruk &amp; Portilla-Villota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>9c8fc774ee8d4aecb195b1eb3fc372c8</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Joshi-apte &amp; Malladi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>721b28188f6501b17c6063b2703cc7a9</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Makkar &amp; Peddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>8118952414d30be5742a5eca87f4631e</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cai &amp; O'Hanrahan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fe0898443189d4dcf30d13a98e7b0e94</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Zindani</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6babb5b3291c535159ef3e2a08d331f9</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c2522f25ef285b6ee3e0aead5b4daee4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1ff1b095bbdc859d3116c124e3dd5a9e</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thomas &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9b91b52146640618901f9af277e9cca9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bfedfeeb18bd3949952fbf16c91076c6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2ec8ef9155ca2437b68b7916d28a6097</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1f80f9f3721cc9ebed62ffc3f6c6cef4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cai &amp; O'Hanrahan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c99642e255104c7092b81c2f31fa1d6f</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Makkar &amp; Peddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fb127c53edef1effd55fbd58c1b90fe8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Faruk &amp; Portilla-Villota</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>9e1723c0c10aa3c218581248ad85e921</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>8a91d17576279972ba67d19df1deca66</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2ef73028f4ea15fb4a933ffb7f2da59a</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>c0e35b47458ddee62139114a7216b845</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3ba75a8ec909ab2f1dbaa3d12871fa42</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Suda &amp; Taylor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>9f4c5afb287d46f49c9d035df333b639</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>28e2289ad50183820c6ec2b6d0f5fd49</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Zindani</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3c586deb5bd05787132cd074639b91b2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Thomas &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>43a72b51a6534a11b7bf7238431659f1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Joshi-apte &amp; Malladi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0d16e4a8a5425980325f16e531b6117a</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>622e4e84c53909803972981b72c2f1a4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>afb986c0ea54e741d74df49340584edc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7a5386ef38d88077f85b31b7c1b29dbf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cd614fe5e6b450c5e5a4992eaa6cd0b1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Makkar &amp; Peddi</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0319402e5921606981ebaf3d06391b10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1ed76451d9c465d2ee378b9a6043620d</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>157d76d1d561a120abf8878ded453960</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Faruk &amp; Portilla-Villota</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>688acf2252502437ca1cdf4cb4d3ef84</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>f360d6c685f71427afc76c37f06a1a74</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Suda &amp; Taylor</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>21c7dac8b312bacf1807f40bf1ad29ed</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Thomas &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08a1b1dd04767159630ec945fc2ecaef</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6d59319d4b30d05eabc9a32a5b0d6e4c</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1a0cb9da97a9768b7bf916c7962cc38f</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Joshi-apte &amp; Malladi</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>dec3a9d5f43d59489e56936ec4136cae</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Zindani</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>25b7b7f316367fe79559a0c87d0de7fa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>b8468fdad4986c6424b5ddded4ae11f5</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>fc06e81c4ac6f631e9ed5cb22b5d75aa</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Makkar &amp; Peddi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2d9bb3623792ca5af265d58576153e28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Joshi-apte &amp; Malladi</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>b181582f5c585c260f47b660e8e1a3d8</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Zindani</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3736831413cd2e90610b8a997d79b747</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hameed &amp; Quick</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>27965b0d855c91bd0170e06567985135</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>47e55da3636e98d0a710c2a8f8d2acc4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>9d67ad8e0397e93e42ad4896741313fa</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>86fdc756a0e02c8cc2130d513b16cf0e</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Thomas &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>9172d3ea8a4093c4c220c44c13148a1e</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Suda &amp; Taylor</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Cai &amp; O'Hanrahan</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1d2bbf3f4f440e4e367d9ec42b94d4c3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>56e1f071a9a6a061314486d67443c902</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6704e81996b25407443df67bda34313e</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>529b2c85386e5cf4639cf45122413586</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Faruk &amp; Portilla-Villota</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>28433a4cd8822b52eacf5329d0d5c205</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>fd839f5c2c453a3fd841f593f373e434</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2ed2a143d9300496565c990f0633d131</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4e1cef87e040dc45d8ab42541665b3f9</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7d81b69ce727f1e2ec8002fd460ff885</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Bose &amp; Thakur</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2bd8b7b2f2d0e5617c04cd99e7d5e884</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>f6e9d1d0d01272888d360bc69d3fcb0e</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0e0d99b26189b41ec5e7b8d4964e65f3</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>009c421e192e7f9ebf5266362e13618b</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>b3c09f780922439fdb471d0ea2434df0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>8560d0c4817ef508d704c24d216fe548</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>b1478b6809bdd0e0afe1538075216e8c</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>70b23f3dc0413571aa9d13d11cba979c</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1773af65b65a8b9f978b51238e7888eb</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>443a3c7edba41ed7f601964209d75155</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Abraham &amp; Slaughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>9005d2286a668bb4ea01627e891096dd</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>82a33cedbabeafe8d4b00fd8b099228a</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Blair &amp; Hinojos</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>9b8b7ced59af4374e36d630df8282893</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Choudhury &amp; Vo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Koo &amp; Zubairi</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4a34c58117f8af6dad72f8f464b3f847</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8ae8719dcc5beab531e97843e0b5bd3a</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>e21c0da93c910bb4734ca20f8a700393</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hastings &amp; Howell</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ac01e0c0440f1afb4fa1cd36ab3e4bc9</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Tulasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3356e224efd99ed1e198289a734f451d</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Qin</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>f92a0eee7d95ffd650bdeaf967710b5f</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4b62ed69365e8b45e97391c363e8e499</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Pinnaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>a175d2a03ddadfb9380c2d4a591c0bb8</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>e45dd0923e488e550ac4cfbc46ec2b27</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>b7d252f1958b377506675fa0fdc6e24c</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>494c2d084063a5d016be3f3c5f0fb979</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1a0d52094cdebb7340df99de88219fc5</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Bose &amp; Thakur</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>bd19c2e9f5e51b3f6a46da569faada97</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Abraham &amp; Slaughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>16c15934e773e68539008dd57fe5d24e</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Blair &amp; Hinojos</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>63ac947d2ddb6edaa33a8ae47cf71888</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Pinnaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>9e1e5f3177c2d432e5b55a2d426951cd</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>aa41e2ce27b094c14f17d75abf16baea</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>aacff1c11cb6fc47e21617c18cc8acdb</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Koo &amp; Zubairi</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>9be4a7f36fe9b7f8524e0ce7d5f34834</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bose &amp; Thakur</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>a71dc9ac67c713d6bc0d559b968842dc</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Tulasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1d01dc48b8174bcc71c87467c5746dad</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Choudhury &amp; Vo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>e8eaf61f93b7314bb13fe3bab2bf67f3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2f7fdbd77a495ac15cd32f1a124311ff</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0b4201479856808108d76605e4bab080</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1ed956299ac9e84cfcefbd4259128305</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>63d5e7e7ef8747fff1c8ae2d1efa20ea</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Qin</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4bad2cc676940a02aaf157c0b2cd5a9b</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3015ccc7a35667976474e833431149d4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>b94debd05fcb6068331e25fa849a8b96</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>e4b0caff1036bb257c3d44468d003047</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Hastings &amp; Howell</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>07e72803f88dcbac5c6a8294eb2521c1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>83a0ba1025c117246c19d621e2b954ed</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Tulasi</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0001742881970c102e2705e60ff7dc31</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bose &amp; Thakur</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>a67c70eeea85aad087f8c95e88f9870b</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>5cfd5cc8439d35449e14f50acd03ec37</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>202bc4a0e445f70a4bfc8bd6d9ae56a0</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>c721d1f996502a040bcf611cf4b681e8</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>57b7b744f696a994fe53143061f614e2</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Blair &amp; Hinojos</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ac82e7cd85f72640f20287d1b330104b</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Koo &amp; Zubairi</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2548a5c73714a1be75730f6e4a917e9d</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>e2ff84dc1047928d6708f408e8b627cd</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>e6164b60d0bd9b14241f23a60e254e3d</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>a9624dd1b39590f141c728dd8c335040</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hastings &amp; Howell</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>6c2ae561bd9fabf4db4f3b5aa4416996</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Qin</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3d0b1715dba70a82a1051d3b5baa473b</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Choudhury &amp; Vo</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>f67da6b58825bc835adbb7f844fd9a66</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Abraham &amp; Slaughter</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>6903d5a0a72e3af3f6a163b6541527ac</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Funk &amp; Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>22c89636a9f857eed1deaf4088274307</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Pinnaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>6b857a9ce8e4a1b63fabf51997e710d6</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Tulasi</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Hastings &amp; Howell</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>84e538a004174594b1fb71e7797a4e56</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>41b496a4beccabe68d51b2b765d43073</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Pinnaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>9913a5529eb112f42ead26a0f3506fff</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Koo &amp; Zubairi</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>d696c8950e7ad5d90e4da3b3ac9e4029</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Qin</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Choudhury &amp; Vo</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>a44ba0ccadeff2662d8bb6f4159a6020</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Friedlander &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>d38356a46e65126862ada39e9848b619</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lunifeld &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>a0a0e37008a7dc8dd0d8c71b8c5d29bc</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Bose &amp; Thakur</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Erramilli &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1e677988b122aeeba4cb185be3ab77af</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; peddireddi</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>bd7c94003e96ddca8648b8a9f37812a7</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>9cf54eb0aabc9b1ccdcb18d902cdc35e</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>02a5e50355c2e568ae34a1fa6ada4610</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Blair &amp; Hinojos</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0adfd55ff752d802b42bde1e473d36de</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>639c5b8a23e9ccfe7d73bdff5d256a74</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ea66478ec2d9c485ab944e0c2fa0e306</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Lawson</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Funk &amp; Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>a4a7159235263dd4b5616c5c401a3052</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>28c68e663baa1e03126de355ee199882</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>f5ba9e2eead8d1b77c02ae21b3c0e257</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>128734c25cd14463df23ef65264b7867</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>5f1e4dfaac21eb9be17a73375534899e</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>045d282f16d5e18f890c18183dc85c2d</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1d39fa2d9b33c70ca9801d76465814d4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>7daf17a8719bdfbb54f90e79f2f25e39</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4149f3573c88de4056a973c04144f9ac</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>b9aa060bf9bd9cb225dbf103eb07a6af</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4dfea161632e7228537d070d706c227e</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>4f33a8bef1cd93c0f0ab198e119b65ad</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>3599a62e15aa49a7e5fefbd732310e3c</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>7c5f4f762277ef6788de69c6ed4f8f44</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Chhabra &amp; Hatefi</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>683e6610475a1905b11d510ccde9f7cd</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>91fe323c50b56806c0791946df1b3c24</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>9725c2c136e1124ea037a7e6013fa96c</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>dd546f0979b264d4c3f0535861dda072</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>6da5eec2e8aca92b0ad48f905104476f</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Braun &amp; Edwards</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>57aaf725d635a79ecb01071dcf52bb11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>628f085aafe4fcda659491fd074d961c</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Chhabra &amp; Hatefi</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4384751f23a002f68aac4c1f4c0e52a7</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>026b4e4b9d0ff2ca23ba27abd8a50222</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>d80314fb6f6da72aa30bcc25c71ae722</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>c706ece671fe7da8a08aa1bd102f1be9</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Braun &amp; Edwards</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>22c32c30f3ea552b5802577e17f52c51</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>57af8e7589efd240eda41f49d98caa8a</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2496ff8acd875d7be3a80a4c4f266b58</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>bc0ac328098c17a9fb800b0c9b1ed26d</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>8ce92b92cd9d82a1e44fae8f31c3e669</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>583c952b448c4afdece702fedd736adb</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>f9d920b826e0593a8d71d120cf025c4c</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>70f6f7ecc4ab678ae13ff94ec2934de4</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Chhabra &amp; Hatefi</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>13789d38de302655e9f6e1fb3353ba6b</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>9e2689069326122dda21c4ec5987723c</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>068fa3553e8ef8e77d6503b322fdbbf6</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>8bbb6c69af43e01378d7759749a6a3c9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>85e2ca7e06a8f3120401412e7d9191a8</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Braun &amp; Edwards</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>6fdbac2f172e5db3f12097b464129624</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>bea330237635f691be5350e48afdde42</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>711ca667058be58e1a3635c92915b02f</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>484f2ed9805bca3c2c38f332a53cba9c</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Allen &amp; Chavez-Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2dd05e669067a31dc803b08438160521</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Chhabra &amp; Hatefi</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>d8a8966a53dbc7d36654da452852d132</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Gillis &amp; Sullivan</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>bb37b789e5008bede43b3983d7944e65</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Gandikota &amp; Jeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>6a46e29cfa02b32f70f425ababa07b16</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Braun &amp; Edwards</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>3f48d5cd6ce50abe60401b32fb4e8805</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Dunkley-Goetz &amp; Schwab</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>95f56ac79ff4ab93bf948ce60d5efe67</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>37e874b7c28f476f1a31b8c1b73c7ab2</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Gedela &amp; Gurijala</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>be1e2cd5e6dc85eda08afac155ddb5cf</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>6fe00a7195312ad62b5016d35e94ab55</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>c952fa4dbbe0c7fc6ce3e3e6fb46282e</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>b82e8d53dff6d78b72ddabbee756409a</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>9f133725fe3656c805c8203b420a345e</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>6aa595c7c85d5fbcb430a869ed13549e</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>0d9c790d54f5627d5befb369f6722cc5</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Babur &amp; Zhao</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>7053466fd8ec7c06a20e9ce598165725</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>21a7115462c7c9953dc385edd6fa9fb1</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Jeon &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>c2592bd179575cc3dabe054ab9930f04</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>f3e89170a037f9fd7401251ad77dc08b</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2a0eab14f45dfcc06f8d4f6b5096436b</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ac48cef83ff5674a5ded424f2ef27561</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>b767aa0fffb3471cc7ccb30812a026ca</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Lindberg &amp; Perez</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>b65bb905ebc7de7f5f2199fb88fdb1e8</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>b83193c79fa2a9532e04f43c812c1724</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>af9dead6e4ffe84212aeb7d90282645d</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>d53b5f35e0b30196a551c98f8c6f913b</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Jeon &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>0973a0e1e21e3f10e71480406f380c81</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>442832012cbab46c28c7482bb120659a</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>8a9607d3fa5623992b80c52018835772</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Babur &amp; Zhao</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>df62525c50e8882bf879af7b542e95df</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>eb2c95972594951c538e250645ac2a48</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>6cea9b62f3927cfe2000fe7c9bd021ef</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>78c4d540ae1fed3db7a2b45ad1931143</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>06807ac67fded4a4f6b5aa3b3b8b8c96</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Jeon &amp; Sullivan</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7b666b48283335c09332c50997ec7132</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Babur &amp; Zhao</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>5fc4a7c784cbcf8748ec4d46705ae707</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>86fa9f9af43368636fae99a874594940</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Lindberg &amp; Perez</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>8da8e2f89470192cbc85ad3939bd5c2a</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>b44939770e617b6944265cc5c191c098</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>80b255852e10547b4f019abc764c83d0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>a4239f8e6ba69fbb7312744627f4d80f</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>eed6f161b5effc1fa699ff1dcfecccd1</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>8b4bd73647d231b2e6662a4da80627f4</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ae7fe45971afe977e9ea92c96ed23be7</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Anil &amp; Glukhovskiy</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>58fc48a3410b17940990d37d4ee1db13</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>65110d9a88dc47f422e6a3b29bb52371</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Suravaram &amp; Valluru</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ed4e7f843fe1d75619b7fe87bb252cf7</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>11a79151a03bd21e8a04cf6f35631791</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Lindberg &amp; Perez</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>92fe8bc1e25d2baacb43954bc86d82ec</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Cai &amp; Jauregui</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Babur &amp; Zhao</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>58e1603564e1b438dd8822fbbc7d31a1</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>04ba550cdfbdbf3bf18c6a9e16551755</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Gupta &amp; Naik</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Qin &amp; Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>df1f517f13a4aa22ee6c670d18464ab2</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Speyer &amp; Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>f4234413583d5d9bf91b3fdaf7ce2278</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Ren &amp; Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>aed0484d23a58d4e7beccf36fac2a859</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>8cae02d0b98f1afd607c0bd5cef550f0</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>8782cd48a42b70e1ea1c90fec534554e</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>7283d5534dfdbbfdd8c7c20a1df5e03d</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>6c3f816f05eb138d39d0aef8fad3d324</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>77950f9b0f00cccc21efd8fc85e527bb</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>8d0245d21a715d97a8a05eba535d8057</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>4fdc40bd27466160b1d9616d5702c93a</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Qi &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>a2d734fa486d119240f4aab87d472fab</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>7af65f44068e238fcfdfd1050836ffa8</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Gao &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>e1a3f5ab9e613247e514cfe757f15e8d</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>b38686e34fd57e48b9c8ce192f6ca32a</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Kye &amp; Kyung</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>a9f220291629583e1103301a96bf102f</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Kang &amp; Yi</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>21045a0f81b78385c758ea86e7679d71</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Qi &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>21a32abb0f4dbb13ab647fdaebc1a426</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Paik &amp; Yoshiyama</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>fda54d84fe08bfcabbf16195efd75b87</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>9377478ad790161fd47d21b53ce3bb36</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>c9cea0c83badb544d7fa27e6386be631</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Chan &amp; Shin</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>a070b7d7a75140ed2f5c8209d7579ba5</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Jones &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; Sehgal</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>908fcd4369b18aa86f6ef406107d8dca</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Kang &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>9dfb65b392b108655bc071d9bb5a2f9c</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Gao &amp; Park</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>aefd42ad6d2cb5e6d67931dd557c4f09</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>330c046dd6a87445158ec2d33852f44c</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Srinivasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>4dc175214482e68e4b64ab6621e918e1</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>29750e3d42fb8017b0321e95e4fdf5d7</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ea3044d17705f7c075ee859da5341329</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Paik &amp; Yoshiyama</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>428f6893c391b8c468e48714402b570f</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>f46b4d47dd0362a02b74fda0e95f4431</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>b5b8fe5eb738c9a2a3e30991da6ef75e</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Jones &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>fdc98ce4fbc357d6aafeaed2e1e43542</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; Sehgal</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>c49a99fd0820f161bf2b28fa2ff7b3c6</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>8d4cf1acea7b132f5e45d02bdd58741d</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Qi &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Srinivasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>d0f5c55257d24a0583032928abcd0ca7</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>b33d4d674d3152ff6cd8a29b148be64c</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>dcccd563d3eede81e022e87ceed6d40d</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Kang &amp; Yi</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>d5f477c3f20943dff6455afb1a9a7d7c</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Gao &amp; Park</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>092bd89a57d551365629838764bf03b6</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Kang &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>69709952bcc90cd5125f120bdda5057e</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Kye &amp; Kyung</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>0832243c42618ac28f4d91d3c481dcd5</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>5a5448c34e95f661668e90a278eb80cb</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>7ddac42a19344b401caeaca94a895d37</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Srinivasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>b9bc429fa471f00f0952fd1127390501</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>13da75513c6d9a52f863b70fa82ce296</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Gao &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>cefeeaeb26611a481e7f7bec552dc494</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>73d50c9106aa6b890a4e8583b2ba240b</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; Sehgal</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>b5bf248bcf1b6a179332e43400941cb0</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Kang &amp; Yi</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2aeeb66d0fd2574ddead617378710009</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Kye &amp; Kyung</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>0f9a403ea140d3dc0043757e47647f59</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Qi &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>731600b94cdd7266a6621ded3a9022bb</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1ad02763018848ad0a25ab9876390393</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Jones &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>4bb7ae798cb095564ab2f51c3517644f</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Kang &amp; Kim</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>adea9865e53a3d7d6d9a6b307dcfc8ea</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Paik &amp; Yoshiyama</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>141cd5b0f4c8a90f06652aee44cf847e</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Chan &amp; Shin</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>224281d0f2c11a4375a28b7017da26e3</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Chelekani &amp; Sehgal</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>fa8af3636e7032d9d18d4ac801848e82</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Huang &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Clanfield &amp; Kai</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>801a883fe0bfd5062713a068cd96bb02</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Chu &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>e9f82a1b62ee2745029799ce8e090f6e</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>318d5443a5c09b90e8a9cdcbb9502f4d</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Kang &amp; Yi</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>facb7c74b664e0464fa535762519d4e3</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Jones &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>17cd4db7695e2961b5bfa578669dc5ab</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Kye &amp; Kyung</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ecac3b882fd0125add530f7a7ec9cd82</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Qi &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>f8db7c600b7a2175fea8f34804280005</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Chandupatla &amp; Srinivasan</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Chan &amp; Shin</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>e5a858ff354af2d80cf26d340ec78b65</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Paik &amp; Yoshiyama</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>6ef894032df21335f71739d22d4212cf</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Hinojos &amp; Howell</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ffe8343e3d6de470610e39b9cc028efc</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>489626a8236248a57715e478eda2dbe6</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Hastings &amp; Kinnison</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>bf7e417ad735cf499abadcd3c92044eb</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Connelly &amp; McDougall</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>e9adc8bbce39cd4928e1044c06f3c509</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>820161429550ed9e0f5f6d99ceb993aa</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Gao &amp; Park</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>4ba967c8c3f4a3f16d1de025decf1943</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Kang &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>008965212321877adc4e64b85daa020c</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>120e5722442ca0f420e76a08d534670c</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>cdd8ded2ab955e722707895120981f67</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>b8adf7cf23f5ec6e2d9f032874f571fe</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>5d014b522ca156b6cbaeb4968f9e1a59</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>8c1f731b77454091308981d14bf780be</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>b25c4b5ca05be27b03c386abbc590c78</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>4c352626a8352f8b1f2dbd28c3e2ff83</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Hao &amp; Liu</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>a15f859637a30c065b1a920160049e89</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Guo &amp; Wu</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>bb81e6098ba97cdb7f5ff2c09c52af75</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Houle &amp; Madullapalli</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>f0eccbd92435d3dcd13c8371b33e49bb</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Coffler &amp; Venkatesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>fb7315a43de8c2438b38c5a422787b1e</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Kim &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>b1b691a60db214d6abb638aceb0eb785</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Akolkar &amp; Wessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>db19dff7461291c79027b061772ab055</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>045918e606dd486972b9d5714a55561a</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Li &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>803410738a163ff943e111aa63e5a7db</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Hong &amp; Huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>8c0b41e63263711127c356eb435f310c</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>a87c1a97d688de4c785422395505b22d</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>015df3f1850b6fe20568515e13072ce0</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Li &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>d68df2cbe8c87d4524d57eff9d37fbb4</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>b9c6748a7cc8a624d689ce145dc1099c</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Guo &amp; Wu</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>0c489ae00a5fccf27e19cd4aedca7ac4</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Hong &amp; Huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>78574359c14dd6041538ed2c74e9c5b2</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Akolkar &amp; Wessel</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Coffler &amp; Venkatesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>b683c156cf02f3d23037097ab553a1ae</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>e50ace8a50bdcb601f1eb65a08e222c7</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>82d040582cd7a75ca7adcd15acaca8e1</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Kim &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>84e7a132bd05680feafb5dc80675bd3f</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Hao &amp; Liu</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>d809df833c33b72e8b5fb52a359d99a6</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>50c19232e6e533c7c3784b1e6e538b14</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Houle &amp; Madullapalli</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>f8f88afd6b46ce1b0e111ce1d8858cd1</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Houle &amp; Madullapalli</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Akolkar &amp; Wessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>016040691d2749bb1fb8d07b95bbb1a3</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Hong &amp; Huang</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>6ee0720913d801c3754e33ec36437522</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Guo &amp; Wu</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>dc032b66402e2267ea63f3e44c7b6cce</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Kim &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>0a068891036edc316340653f6ab14418</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Li &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>11bbbd90cbda23e36c062ef0473a9f24</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Coffler &amp; Venkatesh</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>c085981121aa7bff2806021665a4a124</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Hao &amp; Liu</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>d0a6d442ab0bb7b6efc02602712724e2</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>b4898061bc45de9996b0bb8cdf81a89f</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>9cba6de9a3359cdcb5ace6d5b542b6a0</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>5fb4e4ced8f324e6691dd5554aad5847</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>5eff1caaec9c8f3ec4b9c445d558e984</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Akolkar &amp; Wessel</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Hopkins &amp; Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>dc626e669858200e410e3f372c75ec1e</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Isaacson &amp; Paarthiban</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Bhaskarwar &amp; Gopakumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>30a1c3ae48a814c0ba82a8e50ad8e7bc</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Conley &amp; Penry</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Hao &amp; Liu</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>8ce93f512cfb31b47202566f60776ab8</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Coffler &amp; Venkatesh</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Guo &amp; Wu</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>72d96f2ca277bc19a2e129a984d64ec4</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Hong &amp; Huang</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Agrawal &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>c8abfbef999aeaa0d8e068844487dc69</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Pandit &amp; Patibandla</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Duggal &amp; Mahimtura</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ec3930e0221efddfe10e32585bcf4b26</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Sekandari &amp; Warrier</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Kim &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>835d723d889e4f47130dcf69118e8339</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Ajay &amp; Nichani</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Li &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>07918d7a31a3605deeb7542d2a5bf387</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Murkoth &amp; Rastogi</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Ebbert &amp; Nakai</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>17a4fb9decf5ca0a82640f538f02d9d9</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Kannappan &amp; Vakkalanka</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Houle &amp; Madullapalli</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>6cf16cfa1e2eaed1488565ce8f9c697a</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Hanford &amp; Ramnarine</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Omelina &amp; Roman</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
